--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>id тест-кейса</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">400 Bad Request     </t>
   </si>
   <si>
-    <t>Добавление книги с обязательным полем "name" и полем isElectronicBook с цифрами вместо значения boolean</t>
+    <t>Добавление книги с обязательным полем "name" и полем isElectronicBook с данными int вместо значения boolean</t>
   </si>
   <si>
     <r>
@@ -116,7 +116,7 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>Добавление книги с обязательным полем "name"  и полем "year" с буквами вместо цифр</t>
+    <t>Добавление книги с обязательным полем "name"  и полем "year" данными типа String вместо int</t>
   </si>
   <si>
     <t>Отправить запрос POST http://localhost:5000/api/books       {"name": "Чистый код", "year": qwdqd }</t>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Отправить запрос POST http://localhost:5000/api/books        { "author": 12345, "name": "Чистый код" }</t>
+  </si>
+  <si>
+    <t>Добавление книги с обязательным полем "name" и  данными типа int</t>
+  </si>
+  <si>
+    <t>Отправить запрос POST http://localhost:5000/api/books        { "name": 1234 }</t>
+  </si>
+  <si>
+    <t>401 Bad Request</t>
   </si>
   <si>
     <t>Добавление книги без тела запроса</t>
@@ -925,11 +934,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.13"/>
-    <col customWidth="1" min="2" max="2" width="31.13"/>
+    <col customWidth="1" min="1" max="1" width="8.63"/>
+    <col customWidth="1" min="2" max="2" width="27.38"/>
     <col customWidth="1" min="3" max="3" width="45.5"/>
-    <col customWidth="1" min="4" max="4" width="27.0"/>
-    <col customWidth="1" min="5" max="5" width="14.38"/>
+    <col customWidth="1" min="4" max="4" width="26.38"/>
+    <col customWidth="1" min="5" max="5" width="13.63"/>
+    <col customWidth="1" min="6" max="6" width="11.63"/>
+    <col customWidth="1" min="7" max="7" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1105,25 +1116,25 @@
         <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" ht="99.0" customHeight="1">
       <c r="A9" s="15">
         <v>8.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>19</v>
@@ -1138,84 +1149,82 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="99.0" customHeight="1">
       <c r="A11" s="15">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="132.75" customHeight="1">
-      <c r="A12" s="15">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="132.75" customHeight="1">
+      <c r="A13" s="15">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="145.5" customHeight="1">
-      <c r="A13" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="F13" s="13" t="s">
         <v>11</v>
       </c>
@@ -1223,9 +1232,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="144.0" customHeight="1">
+    <row r="14" ht="145.5" customHeight="1">
       <c r="A14" s="15">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>43</v>
@@ -1237,7 +1246,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>11</v>
@@ -1246,9 +1255,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="132.75" customHeight="1">
+    <row r="15" ht="144.0" customHeight="1">
       <c r="A15" s="15">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>46</v>
@@ -1260,7 +1269,7 @@
         <v>48</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>11</v>
@@ -1269,9 +1278,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="144.75" customHeight="1">
+    <row r="16" ht="132.75" customHeight="1">
       <c r="A16" s="15">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>49</v>
@@ -1283,47 +1292,47 @@
         <v>51</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="144.75" customHeight="1">
+      <c r="A17" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="138.75" customHeight="1">
-      <c r="A17" s="15">
-        <v>14.0</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="138.75" customHeight="1">
+      <c r="A18" s="15">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" ht="140.25" customHeight="1">
-      <c r="A18" s="15">
-        <v>15.0</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>58</v>
@@ -1338,17 +1347,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="142.5" customHeight="1">
+    <row r="19" ht="140.25" customHeight="1">
       <c r="A19" s="15">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1363,13 +1372,13 @@
     </row>
     <row r="20" ht="142.5" customHeight="1">
       <c r="A20" s="15">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>64</v>
@@ -1384,15 +1393,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="145.5" customHeight="1">
+    <row r="21" ht="142.5" customHeight="1">
       <c r="A21" s="15">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>67</v>
@@ -1407,21 +1416,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="142.5" customHeight="1">
+    <row r="22" ht="145.5" customHeight="1">
       <c r="A22" s="15">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>11</v>
@@ -1432,19 +1441,19 @@
     </row>
     <row r="23" ht="142.5" customHeight="1">
       <c r="A23" s="15">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>11</v>
@@ -1453,21 +1462,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="143.25" customHeight="1">
+    <row r="24" ht="142.5" customHeight="1">
       <c r="A24" s="15">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>11</v>
@@ -1476,40 +1485,60 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="147.75" customHeight="1">
+    <row r="25" ht="143.25" customHeight="1">
       <c r="A25" s="15">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="147.75" customHeight="1">
+      <c r="A26" s="15">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
+      <c r="C26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27">
-      <c r="F27" s="21"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28">
       <c r="F28" s="21"/>
@@ -1527,8 +1556,7 @@
       <c r="F32" s="21"/>
     </row>
     <row r="33">
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34">
       <c r="F34" s="22"/>
@@ -1536,33 +1564,37 @@
     </row>
     <row r="35">
       <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36">
       <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+    </row>
+    <row r="37">
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G27:G33"/>
+    <mergeCell ref="G35:G36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
     <hyperlink r:id="rId2" ref="D5"/>
-    <hyperlink r:id="rId3" ref="C11"/>
-    <hyperlink r:id="rId4" ref="D11"/>
-    <hyperlink r:id="rId5" ref="D12"/>
-    <hyperlink r:id="rId6" ref="D13"/>
-    <hyperlink r:id="rId7" ref="D14"/>
-    <hyperlink r:id="rId8" ref="D15"/>
-    <hyperlink r:id="rId9" ref="D16"/>
-    <hyperlink r:id="rId10" ref="D19"/>
-    <hyperlink r:id="rId11" ref="D20"/>
-    <hyperlink r:id="rId12" ref="D21"/>
-    <hyperlink r:id="rId13" ref="D22"/>
-    <hyperlink r:id="rId14" ref="D23"/>
-    <hyperlink r:id="rId15" ref="D24"/>
-    <hyperlink r:id="rId16" ref="D25"/>
+    <hyperlink r:id="rId3" ref="C12"/>
+    <hyperlink r:id="rId4" ref="D12"/>
+    <hyperlink r:id="rId5" ref="D13"/>
+    <hyperlink r:id="rId6" ref="D14"/>
+    <hyperlink r:id="rId7" ref="D15"/>
+    <hyperlink r:id="rId8" ref="D16"/>
+    <hyperlink r:id="rId9" ref="D17"/>
+    <hyperlink r:id="rId10" ref="D20"/>
+    <hyperlink r:id="rId11" ref="D21"/>
+    <hyperlink r:id="rId12" ref="D22"/>
+    <hyperlink r:id="rId13" ref="D23"/>
+    <hyperlink r:id="rId14" ref="D24"/>
+    <hyperlink r:id="rId15" ref="D25"/>
+    <hyperlink r:id="rId16" ref="D26"/>
   </hyperlinks>
   <drawing r:id="rId17"/>
 </worksheet>
